--- a/excel_files/eas-2019.xlsx
+++ b/excel_files/eas-2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D Drive\Software Development\Funding Tracking System\funding-tracking-system\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Funding Tracking System\funding-tracking-system\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA0A8A-FAD3-404A-BAAA-F36679B88778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -5834,10 +5835,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -5874,11 +5875,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6162,28 +6163,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F841" sqref="F841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="143.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="2"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="165.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
